--- a/vol_3/Classification.xlsx
+++ b/vol_3/Classification.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salihemredevrim/Desktop/metoomaastricht/vol_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29241D-7C2C-1B41-84E5-AFF614440138}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F909D22-9635-D74A-964D-5E5DCDFD3789}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{EB241A94-4A16-5146-9672-D276D6FD9AA7}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="2" xr2:uid="{EB241A94-4A16-5146-9672-D276D6FD9AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="plain text" sheetId="7" r:id="rId1"/>
     <sheet name="processed" sheetId="5" r:id="rId2"/>
+    <sheet name="lemmatized all (last)" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="20">
   <si>
     <t>Accuracy LR:</t>
   </si>
@@ -133,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -166,13 +173,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9DC1FF-1EE3-904C-8212-1C776FD7F4E2}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2567,4 +2575,1059 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917C0F12-BF7E-B44D-86D3-B8CF0867EB1F}">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.989599317988064</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.87416879795396396</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.98960286347366599</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.88753428832672898</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.98943421949556898</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.80242491044364805</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.98959928861443502</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.87414856069313296</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.98977156495056196</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.99284009546539298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.989940323955669</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.49991474850809797</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.989940323955669</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.99010914051841703</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.98994035273448999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.98977156495056196</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.98823529411764699</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.85456095481670902</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.98823930458496601</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.87151679469799603</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.98807089297886797</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.78062601187263803</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.98823526470436296</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.85453847849819198</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.98840777361063703</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.98636208660074998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.98840579710144905</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.98721227621483298</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.98841567291311705</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.98723404255319103</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.98774259448416701</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.98572399728076099</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.98840568047931698</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.98721201420166305</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.98908966928060005</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.98874872144561798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.73026427962489304</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.72054560954816704</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.76423248882265205</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.77937811280118396</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.67884564469155395</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.64390569395017705</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.73023973563286204</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.72050016303167197</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.87419024889191899</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.98704398227071199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.97561807331628303</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.97715260017050298</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.97604288825598895</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.97759197324414704</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.95948616600790504</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.95930423367246398</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.97561507826683103</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.97714928538170998</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.99318104330037504</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.99659052165018702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.86898734177215098</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.767405063291139</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.869400630914826</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.81022463206816397</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.68425643262101998</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.86898734177215098</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.767405063291139</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.87215189873417698</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.99303797468354404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.86993670886075902</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.794303797468354</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.87152235073460405</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.82413419913419905</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.86102532427424305</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.71975425330812803</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.86993670886075902</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.794303797468354</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.88227848101265804</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.96392405063291098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.86962025316455605</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.75822784810126498</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.87044025157232696</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.80400205233453004</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.67601380500431396</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.86962025316455605</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.75822784810126498</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.87594936708860704</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.99177215189873402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.83955696202531604</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.83639240506329104</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.84668884185061899</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.85626911314984699</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.81065431383902697</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.76351016360932</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.83955696202531604</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.83639240506329005</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.886075949367088</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.974683544303797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.64746835443037898</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.66645569620253098</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.690727373681288</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.74429888403687505</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.61523244312561798</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.60346184107002299</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.64746835443037898</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.66645569620253098</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.78734177215189804</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.97088607594936704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.82373417721518905</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.829113924050632</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.84053821929573402</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.85342019543973902</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.767381076842655</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.74714828897338403</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.82373417721518905</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.829113924050632</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.92911392405063198</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.99493670886075902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.78932584269662898</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.71460674157303306</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.79519388312397599</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.77719298245613999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.77364505844845899</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.63741007194244603</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.78932584269662898</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.71460674157303306</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.817977528089887</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.99550561797752801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.79382022471910096</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.73146067415730298</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.80571731074642605</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.78545780969479295</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.76176176176176102</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.65396113602391603</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.79382022471910096</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.73146067415730298</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.85505617977528003</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.98314606741572996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.79606741573033701</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.70561797752808897</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.80410145709659997</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.77097902097902005</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.7736240913811</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.63090128755364805</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.79606741573033701</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.70561797752808897</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.83707865168539297</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.99101123595505602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.78370786516853896</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.78707865168539304</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.79958355023425298</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.82181476257639796</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.74490785645004798</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.70654810024252201</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.78370786516853896</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.78707865168539304</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.86292134831460598</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.98202247191011205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.56404494382022397</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.57247191011235898</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.61848574237954701</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.69302137958854304</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.54982517482517401</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.54059156702328504</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.56404494382022397</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.57247191011235898</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.70674157303370699</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.96516853932584201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.76797752808988695</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.74101123595505602</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.79784630445423399</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.79428826416778198</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.70685169124024205</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.65877128053293799</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.76797752808988695</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.74101123595505602</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.91573033707865104</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.85756179304566404</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.726015919564306</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.85856905158069796</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.78272425249169397</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.85289256198347096</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.64867841409691596</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.85755895992957198</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.72590670592414397</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.86432160804020097</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.98659966499162399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.854210305823209</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.49979053204859603</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.858190709046454</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.83571428571428497</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.854198696752833</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.88190954773869301</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.86091328026811897</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.71763720150816901</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.862696443341604</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.77682119205297995</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.85212418300653503</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.64238773274917804</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.86090799063773704</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.71752623132426496</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.87353433835845895</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.98241206030150696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.82362798491830702</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.80561374109761197</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.83379392025266397</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.83475783475783405</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.78864824495892405</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.72614622057001199</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.82360250540211499</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.80553999390638498</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.88442211055276299</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.98157453936348404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.62630917469627101</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.62253875157100902</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.67867435158501399</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.71764337198370398</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.59544879898862202</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.57336004006009</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.62624101227006701</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.62239775294466104</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.78894472361808998</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.95896147403685095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.81943862589023797</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.78257226644323397</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.83947858472998105</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.82121942817774696</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.755868544600939</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.69748390871854804</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.81938646852592101</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.78248184201252102</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.94388609715242799</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.99832495812395305</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:K8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:K17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:K26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:K35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>